--- a/artfynd/A 29866-2023.xlsx
+++ b/artfynd/A 29866-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY14"/>
+  <dimension ref="A1:AY33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112221323</v>
+        <v>112221873</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>56543</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,31 +696,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -728,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>617927</v>
+        <v>617699</v>
       </c>
       <c r="R2" t="n">
-        <v>7265495</v>
+        <v>7265465</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -758,17 +754,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>hackspettskalad gren på  undervegetationsgrsn. Tretå observerad födosökande nära liksom Ringhack. Allra mest troligt tretå</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -795,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112220991</v>
+        <v>112221323</v>
       </c>
       <c r="B3" t="n">
-        <v>78107</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -811,26 +802,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -838,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>618001</v>
+        <v>617927</v>
       </c>
       <c r="R3" t="n">
-        <v>7265521</v>
+        <v>7265495</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -876,13 +872,17 @@
           <t>2023-09-17</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>hackspettskalad gren på  undervegetationsgrsn. Tretå observerad födosökande nära liksom Ringhack. Allra mest troligt tretå</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -901,7 +901,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112221233</v>
+        <v>112220995</v>
       </c>
       <c r="B4" t="n">
         <v>88489</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>617942</v>
+        <v>618001</v>
       </c>
       <c r="R4" t="n">
-        <v>7265508</v>
+        <v>7265521</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112221873</v>
+        <v>112221380</v>
       </c>
       <c r="B5" t="n">
-        <v>56543</v>
+        <v>77268</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1023,27 +1023,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103021</v>
+        <v>228912</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1051,10 +1050,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>617699</v>
+        <v>617952</v>
       </c>
       <c r="R5" t="n">
-        <v>7265465</v>
+        <v>7265480</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1081,12 +1080,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1095,6 +1094,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112221174</v>
+        <v>112221011</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>89646</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1125,25 +1125,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>65</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1156,10 +1156,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>617967</v>
+        <v>617996</v>
       </c>
       <c r="R6" t="n">
-        <v>7265496</v>
+        <v>7265516</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112221380</v>
+        <v>112220975</v>
       </c>
       <c r="B7" t="n">
-        <v>77268</v>
+        <v>90658</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1235,21 +1235,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>4361</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>617952</v>
+        <v>618020</v>
       </c>
       <c r="R7" t="n">
-        <v>7265480</v>
+        <v>7265521</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112220975</v>
+        <v>112220991</v>
       </c>
       <c r="B8" t="n">
-        <v>90658</v>
+        <v>78107</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1341,21 +1341,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4361</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>618020</v>
+        <v>618001</v>
       </c>
       <c r="R8" t="n">
         <v>7265521</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112221397</v>
+        <v>112221233</v>
       </c>
       <c r="B9" t="n">
-        <v>77268</v>
+        <v>88489</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1447,21 +1447,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>228912</v>
+        <v>1962</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>617945</v>
+        <v>617942</v>
       </c>
       <c r="R9" t="n">
-        <v>7265470</v>
+        <v>7265508</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112220995</v>
+        <v>112221165</v>
       </c>
       <c r="B10" t="n">
         <v>88489</v>
@@ -1580,10 +1580,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>618001</v>
+        <v>617967</v>
       </c>
       <c r="R10" t="n">
-        <v>7265521</v>
+        <v>7265496</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112221170</v>
+        <v>112221397</v>
       </c>
       <c r="B11" t="n">
-        <v>77186</v>
+        <v>77268</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1659,21 +1659,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>353</v>
+        <v>228912</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>617967</v>
+        <v>617945</v>
       </c>
       <c r="R11" t="n">
-        <v>7265496</v>
+        <v>7265470</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112221011</v>
+        <v>112221143</v>
       </c>
       <c r="B12" t="n">
-        <v>89646</v>
+        <v>90682</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1761,25 +1761,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>65</v>
+        <v>2059</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>617996</v>
+        <v>617972</v>
       </c>
       <c r="R12" t="n">
-        <v>7265516</v>
+        <v>7265508</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1855,10 +1855,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112221143</v>
+        <v>112221174</v>
       </c>
       <c r="B13" t="n">
-        <v>90682</v>
+        <v>78107</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1871,21 +1871,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1898,10 +1898,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>617972</v>
+        <v>617967</v>
       </c>
       <c r="R13" t="n">
-        <v>7265508</v>
+        <v>7265496</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112221165</v>
+        <v>112221170</v>
       </c>
       <c r="B14" t="n">
-        <v>88489</v>
+        <v>77186</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1977,21 +1977,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1962</v>
+        <v>353</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2065,6 +2065,2041 @@
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112254591</v>
+      </c>
+      <c r="B15" t="n">
+        <v>77268</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>228912</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mörk kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Carbonicola myrmecina</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>617661</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7265491</v>
+      </c>
+      <c r="S15" t="n">
+        <v>25</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112254508</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>617619</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7265451</v>
+      </c>
+      <c r="S16" t="n">
+        <v>25</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112254542</v>
+      </c>
+      <c r="B17" t="n">
+        <v>88489</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1962</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vaddporing</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Anomoporia kamtschatica</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>617642</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7265457</v>
+      </c>
+      <c r="S17" t="n">
+        <v>25</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112254450</v>
+      </c>
+      <c r="B18" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>617583</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7265437</v>
+      </c>
+      <c r="S18" t="n">
+        <v>25</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Färska ringhack 3 meter från avverkningsplanerad skog</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112254479</v>
+      </c>
+      <c r="B19" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>617593</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7265453</v>
+      </c>
+      <c r="S19" t="n">
+        <v>25</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112254521</v>
+      </c>
+      <c r="B20" t="n">
+        <v>89646</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>65</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fläckporing</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Anthoporia albobrunnea</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>617624</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7265452</v>
+      </c>
+      <c r="S20" t="n">
+        <v>25</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112254658</v>
+      </c>
+      <c r="B21" t="n">
+        <v>78107</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>617729</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7265487</v>
+      </c>
+      <c r="S21" t="n">
+        <v>25</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112254474</v>
+      </c>
+      <c r="B22" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>658</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>617593</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7265453</v>
+      </c>
+      <c r="S22" t="n">
+        <v>25</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112254622</v>
+      </c>
+      <c r="B23" t="n">
+        <v>78107</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>617693</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7265510</v>
+      </c>
+      <c r="S23" t="n">
+        <v>25</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112254423</v>
+      </c>
+      <c r="B24" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>617579</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7265423</v>
+      </c>
+      <c r="S24" t="n">
+        <v>25</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112254571</v>
+      </c>
+      <c r="B25" t="n">
+        <v>88489</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1962</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Vaddporing</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Anomoporia kamtschatica</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>617653</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7265480</v>
+      </c>
+      <c r="S25" t="n">
+        <v>25</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112254411</v>
+      </c>
+      <c r="B26" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>617579</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7265423</v>
+      </c>
+      <c r="S26" t="n">
+        <v>25</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112254540</v>
+      </c>
+      <c r="B27" t="n">
+        <v>90854</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2079</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Nordtagging</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Odonticium romellii</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(S.Lundell) Parmasto</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>617642</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7265457</v>
+      </c>
+      <c r="S27" t="n">
+        <v>25</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112254531</v>
+      </c>
+      <c r="B28" t="n">
+        <v>88489</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Vaddporing</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Anomoporia kamtschatica</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>617635</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7265444</v>
+      </c>
+      <c r="S28" t="n">
+        <v>25</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112254477</v>
+      </c>
+      <c r="B29" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>617593</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7265453</v>
+      </c>
+      <c r="S29" t="n">
+        <v>25</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112254491</v>
+      </c>
+      <c r="B30" t="n">
+        <v>78107</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>617619</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7265460</v>
+      </c>
+      <c r="S30" t="n">
+        <v>25</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112254523</v>
+      </c>
+      <c r="B31" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>617624</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7265452</v>
+      </c>
+      <c r="S31" t="n">
+        <v>25</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112254375</v>
+      </c>
+      <c r="B32" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>617583</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7265393</v>
+      </c>
+      <c r="S32" t="n">
+        <v>25</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112254546</v>
+      </c>
+      <c r="B33" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Spänningsberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>617642</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7265457</v>
+      </c>
+      <c r="S33" t="n">
+        <v>25</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 29866-2023.xlsx
+++ b/artfynd/A 29866-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112221873</v>
+        <v>112221143</v>
       </c>
       <c r="B2" t="n">
-        <v>56543</v>
+        <v>90816</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,27 +696,26 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103021</v>
+        <v>2059</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -724,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>617699</v>
+        <v>617972</v>
       </c>
       <c r="R2" t="n">
-        <v>7265465</v>
+        <v>7265508</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -754,12 +753,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -768,6 +767,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112221323</v>
+        <v>112221380</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>77389</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -802,31 +802,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -834,10 +829,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>617927</v>
+        <v>617952</v>
       </c>
       <c r="R3" t="n">
-        <v>7265495</v>
+        <v>7265480</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -872,17 +867,13 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>hackspettskalad gren på  undervegetationsgrsn. Tretå observerad födosökande nära liksom Ringhack. Allra mest troligt tretå</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -901,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112220995</v>
+        <v>112221011</v>
       </c>
       <c r="B4" t="n">
-        <v>88489</v>
+        <v>89780</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -913,25 +904,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1962</v>
+        <v>65</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +935,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>618001</v>
+        <v>617996</v>
       </c>
       <c r="R4" t="n">
-        <v>7265521</v>
+        <v>7265516</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1007,10 +998,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112221380</v>
+        <v>112220975</v>
       </c>
       <c r="B5" t="n">
-        <v>77268</v>
+        <v>90792</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1023,21 +1014,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228912</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1050,10 +1041,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>617952</v>
+        <v>618020</v>
       </c>
       <c r="R5" t="n">
-        <v>7265480</v>
+        <v>7265521</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1113,10 +1104,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112221011</v>
+        <v>112221397</v>
       </c>
       <c r="B6" t="n">
-        <v>89646</v>
+        <v>77389</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1125,25 +1116,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>228912</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1156,10 +1147,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>617996</v>
+        <v>617945</v>
       </c>
       <c r="R6" t="n">
-        <v>7265516</v>
+        <v>7265470</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1219,10 +1210,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112220975</v>
+        <v>112221233</v>
       </c>
       <c r="B7" t="n">
-        <v>90658</v>
+        <v>88623</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1235,21 +1226,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4361</v>
+        <v>1962</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1262,10 +1253,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>618020</v>
+        <v>617942</v>
       </c>
       <c r="R7" t="n">
-        <v>7265521</v>
+        <v>7265508</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1325,10 +1316,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112220991</v>
+        <v>112221174</v>
       </c>
       <c r="B8" t="n">
-        <v>78107</v>
+        <v>78228</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,10 +1359,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>618001</v>
+        <v>617967</v>
       </c>
       <c r="R8" t="n">
-        <v>7265521</v>
+        <v>7265496</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1431,10 +1422,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112221233</v>
+        <v>112221170</v>
       </c>
       <c r="B9" t="n">
-        <v>88489</v>
+        <v>77307</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1447,21 +1438,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1962</v>
+        <v>353</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1465,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>617942</v>
+        <v>617967</v>
       </c>
       <c r="R9" t="n">
-        <v>7265508</v>
+        <v>7265496</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1537,10 +1528,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112221165</v>
+        <v>112221323</v>
       </c>
       <c r="B10" t="n">
-        <v>88489</v>
+        <v>56430</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1553,26 +1544,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1962</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1580,10 +1576,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>617967</v>
+        <v>617927</v>
       </c>
       <c r="R10" t="n">
-        <v>7265496</v>
+        <v>7265495</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1618,13 +1614,17 @@
           <t>2023-09-17</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>hackspettskalad gren på  undervegetationsgrsn. Tretå observerad födosökande nära liksom Ringhack. Allra mest troligt tretå</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112221397</v>
+        <v>112221165</v>
       </c>
       <c r="B11" t="n">
-        <v>77268</v>
+        <v>88623</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1659,21 +1659,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>228912</v>
+        <v>1962</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>617945</v>
+        <v>617967</v>
       </c>
       <c r="R11" t="n">
-        <v>7265470</v>
+        <v>7265496</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112221143</v>
+        <v>112220991</v>
       </c>
       <c r="B12" t="n">
-        <v>90682</v>
+        <v>78228</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1765,21 +1765,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>617972</v>
+        <v>618001</v>
       </c>
       <c r="R12" t="n">
-        <v>7265508</v>
+        <v>7265521</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1855,10 +1855,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112221174</v>
+        <v>112220995</v>
       </c>
       <c r="B13" t="n">
-        <v>78107</v>
+        <v>88623</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1871,21 +1871,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6453</v>
+        <v>1962</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1898,10 +1898,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>617967</v>
+        <v>618001</v>
       </c>
       <c r="R13" t="n">
-        <v>7265496</v>
+        <v>7265521</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112221170</v>
+        <v>112221873</v>
       </c>
       <c r="B14" t="n">
-        <v>77186</v>
+        <v>56575</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1977,26 +1977,27 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>353</v>
+        <v>103021</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2004,10 +2005,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>617967</v>
+        <v>617699</v>
       </c>
       <c r="R14" t="n">
-        <v>7265496</v>
+        <v>7265465</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2034,12 +2035,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2048,7 +2049,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2067,10 +2067,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112254591</v>
+        <v>112254523</v>
       </c>
       <c r="B15" t="n">
-        <v>77268</v>
+        <v>56575</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2083,26 +2083,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>228912</v>
+        <v>103021</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2110,10 +2115,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>617661</v>
+        <v>617624</v>
       </c>
       <c r="R15" t="n">
-        <v>7265491</v>
+        <v>7265452</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2140,12 +2145,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2154,7 +2159,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2173,10 +2177,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112254508</v>
+        <v>112254450</v>
       </c>
       <c r="B16" t="n">
-        <v>90660</v>
+        <v>56430</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2189,26 +2193,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2216,10 +2225,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>617619</v>
+        <v>617583</v>
       </c>
       <c r="R16" t="n">
-        <v>7265451</v>
+        <v>7265437</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2254,13 +2263,17 @@
           <t>2023-09-17</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Färska ringhack 3 meter från avverkningsplanerad skog</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2279,10 +2292,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112254542</v>
+        <v>112254479</v>
       </c>
       <c r="B17" t="n">
-        <v>88489</v>
+        <v>89557</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2295,21 +2308,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1962</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2322,10 +2335,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>617642</v>
+        <v>617593</v>
       </c>
       <c r="R17" t="n">
-        <v>7265457</v>
+        <v>7265453</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2385,10 +2398,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112254450</v>
+        <v>112254542</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>88623</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2401,31 +2414,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>1962</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2433,10 +2441,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>617583</v>
+        <v>617642</v>
       </c>
       <c r="R18" t="n">
-        <v>7265437</v>
+        <v>7265457</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2471,17 +2479,13 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Färska ringhack 3 meter från avverkningsplanerad skog</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2500,10 +2504,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112254479</v>
+        <v>112254540</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>90988</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2516,21 +2520,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>2079</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2543,10 +2547,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>617593</v>
+        <v>617642</v>
       </c>
       <c r="R19" t="n">
-        <v>7265453</v>
+        <v>7265457</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2606,10 +2610,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112254521</v>
+        <v>112254571</v>
       </c>
       <c r="B20" t="n">
-        <v>89646</v>
+        <v>88623</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2618,25 +2622,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>65</v>
+        <v>1962</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2649,10 +2653,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>617624</v>
+        <v>617653</v>
       </c>
       <c r="R20" t="n">
-        <v>7265452</v>
+        <v>7265480</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2712,10 +2716,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112254658</v>
+        <v>112254531</v>
       </c>
       <c r="B21" t="n">
-        <v>78107</v>
+        <v>88623</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2728,21 +2732,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6453</v>
+        <v>1962</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2755,10 +2759,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>617729</v>
+        <v>617635</v>
       </c>
       <c r="R21" t="n">
-        <v>7265487</v>
+        <v>7265444</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2818,10 +2822,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112254474</v>
+        <v>112254477</v>
       </c>
       <c r="B22" t="n">
-        <v>89686</v>
+        <v>89539</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2834,21 +2838,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2924,10 +2928,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112254622</v>
+        <v>112254491</v>
       </c>
       <c r="B23" t="n">
-        <v>78107</v>
+        <v>78228</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2967,10 +2971,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>617693</v>
+        <v>617619</v>
       </c>
       <c r="R23" t="n">
-        <v>7265510</v>
+        <v>7265460</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3030,10 +3034,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112254423</v>
+        <v>112254411</v>
       </c>
       <c r="B24" t="n">
-        <v>56414</v>
+        <v>89539</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3046,31 +3050,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3122,6 +3121,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3140,10 +3140,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112254571</v>
+        <v>112254622</v>
       </c>
       <c r="B25" t="n">
-        <v>88489</v>
+        <v>78228</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3156,21 +3156,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1962</v>
+        <v>6453</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3183,10 +3183,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>617653</v>
+        <v>617693</v>
       </c>
       <c r="R25" t="n">
-        <v>7265480</v>
+        <v>7265510</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112254411</v>
+        <v>112254474</v>
       </c>
       <c r="B26" t="n">
-        <v>89405</v>
+        <v>89820</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3262,21 +3262,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3289,10 +3289,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>617579</v>
+        <v>617593</v>
       </c>
       <c r="R26" t="n">
-        <v>7265423</v>
+        <v>7265453</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3352,10 +3352,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112254540</v>
+        <v>112254591</v>
       </c>
       <c r="B27" t="n">
-        <v>90854</v>
+        <v>77389</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3368,21 +3368,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2079</v>
+        <v>228912</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3395,10 +3395,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>617642</v>
+        <v>617661</v>
       </c>
       <c r="R27" t="n">
-        <v>7265457</v>
+        <v>7265491</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3458,10 +3458,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112254531</v>
+        <v>112254375</v>
       </c>
       <c r="B28" t="n">
-        <v>88489</v>
+        <v>77636</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3474,21 +3474,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3501,10 +3501,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>617635</v>
+        <v>617583</v>
       </c>
       <c r="R28" t="n">
-        <v>7265444</v>
+        <v>7265393</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3564,10 +3564,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112254477</v>
+        <v>112254658</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>78228</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3580,21 +3580,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>6453</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3607,10 +3607,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>617593</v>
+        <v>617729</v>
       </c>
       <c r="R29" t="n">
-        <v>7265453</v>
+        <v>7265487</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3670,10 +3670,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112254491</v>
+        <v>112254423</v>
       </c>
       <c r="B30" t="n">
-        <v>78107</v>
+        <v>56446</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3686,26 +3686,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6453</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -3713,10 +3718,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>617619</v>
+        <v>617579</v>
       </c>
       <c r="R30" t="n">
-        <v>7265460</v>
+        <v>7265423</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3757,7 +3762,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -3776,10 +3780,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112254523</v>
+        <v>112254508</v>
       </c>
       <c r="B31" t="n">
-        <v>56543</v>
+        <v>90794</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3792,31 +3796,26 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>103021</v>
+        <v>4362</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -3824,10 +3823,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>617624</v>
+        <v>617619</v>
       </c>
       <c r="R31" t="n">
-        <v>7265452</v>
+        <v>7265451</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -3854,12 +3853,12 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3868,6 +3867,7 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -3886,10 +3886,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112254375</v>
+        <v>112254521</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>89780</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3898,25 +3898,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>65</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3929,10 +3929,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>617583</v>
+        <v>617624</v>
       </c>
       <c r="R32" t="n">
-        <v>7265393</v>
+        <v>7265452</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -3995,7 +3995,7 @@
         <v>112254546</v>
       </c>
       <c r="B33" t="n">
-        <v>56543</v>
+        <v>56575</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/artfynd/A 29866-2023.xlsx
+++ b/artfynd/A 29866-2023.xlsx
@@ -1104,10 +1104,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112221397</v>
+        <v>112221233</v>
       </c>
       <c r="B6" t="n">
-        <v>77389</v>
+        <v>88623</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1120,21 +1120,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>1962</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>617945</v>
+        <v>617942</v>
       </c>
       <c r="R6" t="n">
-        <v>7265470</v>
+        <v>7265508</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112221233</v>
+        <v>112221397</v>
       </c>
       <c r="B7" t="n">
-        <v>88623</v>
+        <v>77389</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1226,21 +1226,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1962</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>617942</v>
+        <v>617945</v>
       </c>
       <c r="R7" t="n">
-        <v>7265508</v>
+        <v>7265470</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -2822,10 +2822,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112254477</v>
+        <v>112254491</v>
       </c>
       <c r="B22" t="n">
-        <v>89539</v>
+        <v>78228</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2838,21 +2838,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>6453</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>617593</v>
+        <v>617619</v>
       </c>
       <c r="R22" t="n">
-        <v>7265453</v>
+        <v>7265460</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -2928,10 +2928,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112254491</v>
+        <v>112254477</v>
       </c>
       <c r="B23" t="n">
-        <v>78228</v>
+        <v>89539</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2944,21 +2944,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6453</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>617619</v>
+        <v>617593</v>
       </c>
       <c r="R23" t="n">
-        <v>7265460</v>
+        <v>7265453</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>

--- a/artfynd/A 29866-2023.xlsx
+++ b/artfynd/A 29866-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112221143</v>
+        <v>112221165</v>
       </c>
       <c r="B2" t="n">
-        <v>90816</v>
+        <v>88637</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2059</v>
+        <v>1962</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>617972</v>
+        <v>617967</v>
       </c>
       <c r="R2" t="n">
-        <v>7265508</v>
+        <v>7265496</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112221380</v>
+        <v>112221011</v>
       </c>
       <c r="B3" t="n">
-        <v>77389</v>
+        <v>89794</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,25 +798,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>65</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>617952</v>
+        <v>617996</v>
       </c>
       <c r="R3" t="n">
-        <v>7265480</v>
+        <v>7265516</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112221011</v>
+        <v>112220991</v>
       </c>
       <c r="B4" t="n">
-        <v>89780</v>
+        <v>78242</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -904,25 +904,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>617996</v>
+        <v>618001</v>
       </c>
       <c r="R4" t="n">
-        <v>7265516</v>
+        <v>7265521</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112220975</v>
+        <v>112221170</v>
       </c>
       <c r="B5" t="n">
-        <v>90792</v>
+        <v>77321</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1014,21 +1014,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>353</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1041,10 +1041,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>618020</v>
+        <v>617967</v>
       </c>
       <c r="R5" t="n">
-        <v>7265521</v>
+        <v>7265496</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1104,10 +1104,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112221233</v>
+        <v>112221380</v>
       </c>
       <c r="B6" t="n">
-        <v>88623</v>
+        <v>77403</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1120,21 +1120,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1962</v>
+        <v>228912</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>617942</v>
+        <v>617952</v>
       </c>
       <c r="R6" t="n">
-        <v>7265508</v>
+        <v>7265480</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112221397</v>
+        <v>112221143</v>
       </c>
       <c r="B7" t="n">
-        <v>77389</v>
+        <v>90830</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1226,21 +1226,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>2059</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>617945</v>
+        <v>617972</v>
       </c>
       <c r="R7" t="n">
-        <v>7265470</v>
+        <v>7265508</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1319,7 +1319,7 @@
         <v>112221174</v>
       </c>
       <c r="B8" t="n">
-        <v>78228</v>
+        <v>78242</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112221170</v>
+        <v>112221323</v>
       </c>
       <c r="B9" t="n">
-        <v>77307</v>
+        <v>56430</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1438,26 +1438,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>353</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1465,10 +1470,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>617967</v>
+        <v>617927</v>
       </c>
       <c r="R9" t="n">
-        <v>7265496</v>
+        <v>7265495</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1503,13 +1508,17 @@
           <t>2023-09-17</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>hackspettskalad gren på  undervegetationsgrsn. Tretå observerad födosökande nära liksom Ringhack. Allra mest troligt tretå</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1528,10 +1537,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112221323</v>
+        <v>112221397</v>
       </c>
       <c r="B10" t="n">
-        <v>56430</v>
+        <v>77403</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1544,31 +1553,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1576,10 +1580,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>617927</v>
+        <v>617945</v>
       </c>
       <c r="R10" t="n">
-        <v>7265495</v>
+        <v>7265470</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1614,17 +1618,13 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>hackspettskalad gren på  undervegetationsgrsn. Tretå observerad födosökande nära liksom Ringhack. Allra mest troligt tretå</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112221165</v>
+        <v>112221233</v>
       </c>
       <c r="B11" t="n">
-        <v>88623</v>
+        <v>88637</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>617967</v>
+        <v>617942</v>
       </c>
       <c r="R11" t="n">
-        <v>7265496</v>
+        <v>7265508</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112220991</v>
+        <v>112220975</v>
       </c>
       <c r="B12" t="n">
-        <v>78228</v>
+        <v>90806</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1765,21 +1765,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>4361</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>618001</v>
+        <v>618020</v>
       </c>
       <c r="R12" t="n">
         <v>7265521</v>
@@ -1858,7 +1858,7 @@
         <v>112220995</v>
       </c>
       <c r="B13" t="n">
-        <v>88623</v>
+        <v>88637</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2067,10 +2067,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112254523</v>
+        <v>112254491</v>
       </c>
       <c r="B15" t="n">
-        <v>56575</v>
+        <v>78242</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2083,31 +2083,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103021</v>
+        <v>6453</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2115,10 +2110,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>617624</v>
+        <v>617619</v>
       </c>
       <c r="R15" t="n">
-        <v>7265452</v>
+        <v>7265460</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2145,12 +2140,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2159,6 +2154,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2177,10 +2173,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112254450</v>
+        <v>112254591</v>
       </c>
       <c r="B16" t="n">
-        <v>56430</v>
+        <v>77403</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2193,31 +2189,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2225,10 +2216,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>617583</v>
+        <v>617661</v>
       </c>
       <c r="R16" t="n">
-        <v>7265437</v>
+        <v>7265491</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2263,17 +2254,13 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Färska ringhack 3 meter från avverkningsplanerad skog</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2292,10 +2279,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112254479</v>
+        <v>112254658</v>
       </c>
       <c r="B17" t="n">
-        <v>89557</v>
+        <v>78242</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2308,21 +2295,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>6453</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2335,10 +2322,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>617593</v>
+        <v>617729</v>
       </c>
       <c r="R17" t="n">
-        <v>7265453</v>
+        <v>7265487</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2398,10 +2385,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112254542</v>
+        <v>112254477</v>
       </c>
       <c r="B18" t="n">
-        <v>88623</v>
+        <v>89553</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2414,21 +2401,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1962</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2441,10 +2428,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>617642</v>
+        <v>617593</v>
       </c>
       <c r="R18" t="n">
-        <v>7265457</v>
+        <v>7265453</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2504,10 +2491,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112254540</v>
+        <v>112254523</v>
       </c>
       <c r="B19" t="n">
-        <v>90988</v>
+        <v>56575</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2520,26 +2507,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2079</v>
+        <v>103021</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2547,10 +2539,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>617642</v>
+        <v>617624</v>
       </c>
       <c r="R19" t="n">
-        <v>7265457</v>
+        <v>7265452</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2577,12 +2569,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2591,7 +2583,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2613,7 +2604,7 @@
         <v>112254571</v>
       </c>
       <c r="B20" t="n">
-        <v>88623</v>
+        <v>88637</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2716,10 +2707,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112254531</v>
+        <v>112254423</v>
       </c>
       <c r="B21" t="n">
-        <v>88623</v>
+        <v>56446</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2732,26 +2723,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1962</v>
+        <v>100049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2759,10 +2755,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>617635</v>
+        <v>617579</v>
       </c>
       <c r="R21" t="n">
-        <v>7265444</v>
+        <v>7265423</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2803,7 +2799,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2822,10 +2817,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112254491</v>
+        <v>112254531</v>
       </c>
       <c r="B22" t="n">
-        <v>78228</v>
+        <v>88637</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2838,21 +2833,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6453</v>
+        <v>1962</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2865,10 +2860,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>617619</v>
+        <v>617635</v>
       </c>
       <c r="R22" t="n">
-        <v>7265460</v>
+        <v>7265444</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -2928,10 +2923,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112254477</v>
+        <v>112254375</v>
       </c>
       <c r="B23" t="n">
-        <v>89539</v>
+        <v>77650</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2944,21 +2939,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2971,10 +2966,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>617593</v>
+        <v>617583</v>
       </c>
       <c r="R23" t="n">
-        <v>7265453</v>
+        <v>7265393</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3034,10 +3029,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112254411</v>
+        <v>112254508</v>
       </c>
       <c r="B24" t="n">
-        <v>89539</v>
+        <v>90808</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3050,21 +3045,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>4362</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3077,10 +3072,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>617579</v>
+        <v>617619</v>
       </c>
       <c r="R24" t="n">
-        <v>7265423</v>
+        <v>7265451</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3143,7 +3138,7 @@
         <v>112254622</v>
       </c>
       <c r="B25" t="n">
-        <v>78228</v>
+        <v>78242</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3246,10 +3241,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112254474</v>
+        <v>112254411</v>
       </c>
       <c r="B26" t="n">
-        <v>89820</v>
+        <v>89553</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3262,21 +3257,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3289,10 +3284,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>617593</v>
+        <v>617579</v>
       </c>
       <c r="R26" t="n">
-        <v>7265453</v>
+        <v>7265423</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3352,10 +3347,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112254591</v>
+        <v>112254450</v>
       </c>
       <c r="B27" t="n">
-        <v>77389</v>
+        <v>56430</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3368,26 +3363,31 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3395,10 +3395,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>617661</v>
+        <v>617583</v>
       </c>
       <c r="R27" t="n">
-        <v>7265491</v>
+        <v>7265437</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3433,13 +3433,17 @@
           <t>2023-09-17</t>
         </is>
       </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Färska ringhack 3 meter från avverkningsplanerad skog</t>
+        </is>
+      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3458,10 +3462,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112254375</v>
+        <v>112254540</v>
       </c>
       <c r="B28" t="n">
-        <v>77636</v>
+        <v>91002</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3474,21 +3478,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>2079</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3501,10 +3505,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>617583</v>
+        <v>617642</v>
       </c>
       <c r="R28" t="n">
-        <v>7265393</v>
+        <v>7265457</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3564,10 +3568,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112254658</v>
+        <v>112254546</v>
       </c>
       <c r="B29" t="n">
-        <v>78228</v>
+        <v>56575</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3580,26 +3584,31 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6453</v>
+        <v>103021</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3607,10 +3616,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>617729</v>
+        <v>617642</v>
       </c>
       <c r="R29" t="n">
-        <v>7265487</v>
+        <v>7265457</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3651,7 +3660,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3670,10 +3678,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112254423</v>
+        <v>112254542</v>
       </c>
       <c r="B30" t="n">
-        <v>56446</v>
+        <v>88637</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3686,31 +3694,26 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100049</v>
+        <v>1962</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -3718,10 +3721,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>617579</v>
+        <v>617642</v>
       </c>
       <c r="R30" t="n">
-        <v>7265423</v>
+        <v>7265457</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3762,6 +3765,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -3780,10 +3784,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112254508</v>
+        <v>112254479</v>
       </c>
       <c r="B31" t="n">
-        <v>90794</v>
+        <v>89571</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3796,21 +3800,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4362</v>
+        <v>5432</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3823,10 +3827,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>617619</v>
+        <v>617593</v>
       </c>
       <c r="R31" t="n">
-        <v>7265451</v>
+        <v>7265453</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -3889,7 +3893,7 @@
         <v>112254521</v>
       </c>
       <c r="B32" t="n">
-        <v>89780</v>
+        <v>89794</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3992,10 +3996,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112254546</v>
+        <v>112254474</v>
       </c>
       <c r="B33" t="n">
-        <v>56575</v>
+        <v>89834</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4008,31 +4012,26 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>103021</v>
+        <v>658</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4040,10 +4039,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>617642</v>
+        <v>617593</v>
       </c>
       <c r="R33" t="n">
-        <v>7265457</v>
+        <v>7265453</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4084,6 +4083,7 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 29866-2023.xlsx
+++ b/artfynd/A 29866-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112221165</v>
+        <v>112221143</v>
       </c>
       <c r="B2" t="n">
-        <v>88637</v>
+        <v>90830</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1962</v>
+        <v>2059</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>617967</v>
+        <v>617972</v>
       </c>
       <c r="R2" t="n">
-        <v>7265496</v>
+        <v>7265508</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112221011</v>
+        <v>112221165</v>
       </c>
       <c r="B3" t="n">
-        <v>89794</v>
+        <v>88637</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,25 +798,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>65</v>
+        <v>1962</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>617996</v>
+        <v>617967</v>
       </c>
       <c r="R3" t="n">
-        <v>7265516</v>
+        <v>7265496</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112220991</v>
+        <v>112221323</v>
       </c>
       <c r="B4" t="n">
-        <v>78242</v>
+        <v>56430</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -908,26 +908,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -935,10 +940,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>618001</v>
+        <v>617927</v>
       </c>
       <c r="R4" t="n">
-        <v>7265521</v>
+        <v>7265495</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -973,13 +978,17 @@
           <t>2023-09-17</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>hackspettskalad gren på  undervegetationsgrsn. Tretå observerad födosökande nära liksom Ringhack. Allra mest troligt tretå</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -998,10 +1007,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112221170</v>
+        <v>112221380</v>
       </c>
       <c r="B5" t="n">
-        <v>77321</v>
+        <v>77403</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1014,21 +1023,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>353</v>
+        <v>228912</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1041,10 +1050,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>617967</v>
+        <v>617952</v>
       </c>
       <c r="R5" t="n">
-        <v>7265496</v>
+        <v>7265480</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1104,10 +1113,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112221380</v>
+        <v>112221873</v>
       </c>
       <c r="B6" t="n">
-        <v>77403</v>
+        <v>56575</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1120,26 +1129,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1147,10 +1157,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>617952</v>
+        <v>617699</v>
       </c>
       <c r="R6" t="n">
-        <v>7265480</v>
+        <v>7265465</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1177,12 +1187,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1191,7 +1201,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1210,10 +1219,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112221143</v>
+        <v>112221174</v>
       </c>
       <c r="B7" t="n">
-        <v>90830</v>
+        <v>78242</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1226,21 +1235,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1253,10 +1262,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>617972</v>
+        <v>617967</v>
       </c>
       <c r="R7" t="n">
-        <v>7265508</v>
+        <v>7265496</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1316,10 +1325,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112221174</v>
+        <v>112221233</v>
       </c>
       <c r="B8" t="n">
-        <v>78242</v>
+        <v>88637</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1332,21 +1341,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>1962</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1359,10 +1368,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>617967</v>
+        <v>617942</v>
       </c>
       <c r="R8" t="n">
-        <v>7265496</v>
+        <v>7265508</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1422,10 +1431,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112221323</v>
+        <v>112221011</v>
       </c>
       <c r="B9" t="n">
-        <v>56430</v>
+        <v>89794</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1434,35 +1443,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>65</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1470,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>617927</v>
+        <v>617996</v>
       </c>
       <c r="R9" t="n">
-        <v>7265495</v>
+        <v>7265516</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1508,17 +1512,13 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>hackspettskalad gren på  undervegetationsgrsn. Tretå observerad födosökande nära liksom Ringhack. Allra mest troligt tretå</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112221397</v>
+        <v>112220995</v>
       </c>
       <c r="B10" t="n">
-        <v>77403</v>
+        <v>88637</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1553,21 +1553,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>228912</v>
+        <v>1962</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1580,10 +1580,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>617945</v>
+        <v>618001</v>
       </c>
       <c r="R10" t="n">
-        <v>7265470</v>
+        <v>7265521</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112221233</v>
+        <v>112221397</v>
       </c>
       <c r="B11" t="n">
-        <v>88637</v>
+        <v>77403</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1659,21 +1659,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1962</v>
+        <v>228912</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>617942</v>
+        <v>617945</v>
       </c>
       <c r="R11" t="n">
-        <v>7265508</v>
+        <v>7265470</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112220975</v>
+        <v>112221170</v>
       </c>
       <c r="B12" t="n">
-        <v>90806</v>
+        <v>77321</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1765,21 +1765,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4361</v>
+        <v>353</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>618020</v>
+        <v>617967</v>
       </c>
       <c r="R12" t="n">
-        <v>7265521</v>
+        <v>7265496</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1855,10 +1855,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112220995</v>
+        <v>112220991</v>
       </c>
       <c r="B13" t="n">
-        <v>88637</v>
+        <v>78242</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1871,21 +1871,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1962</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112221873</v>
+        <v>112220975</v>
       </c>
       <c r="B14" t="n">
-        <v>56575</v>
+        <v>90806</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1977,27 +1977,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>103021</v>
+        <v>4361</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2005,10 +2004,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>617699</v>
+        <v>618020</v>
       </c>
       <c r="R14" t="n">
-        <v>7265465</v>
+        <v>7265521</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2035,12 +2034,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2049,6 +2048,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2067,10 +2067,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112254491</v>
+        <v>112254477</v>
       </c>
       <c r="B15" t="n">
-        <v>78242</v>
+        <v>89553</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2083,21 +2083,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6453</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>617619</v>
+        <v>617593</v>
       </c>
       <c r="R15" t="n">
-        <v>7265460</v>
+        <v>7265453</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2173,10 +2173,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112254591</v>
+        <v>112254474</v>
       </c>
       <c r="B16" t="n">
-        <v>77403</v>
+        <v>89834</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2189,21 +2189,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>228912</v>
+        <v>658</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>617661</v>
+        <v>617593</v>
       </c>
       <c r="R16" t="n">
-        <v>7265491</v>
+        <v>7265453</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2279,10 +2279,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112254658</v>
+        <v>112254450</v>
       </c>
       <c r="B17" t="n">
-        <v>78242</v>
+        <v>56430</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2295,26 +2295,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2322,10 +2327,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>617729</v>
+        <v>617583</v>
       </c>
       <c r="R17" t="n">
-        <v>7265487</v>
+        <v>7265437</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2360,13 +2365,17 @@
           <t>2023-09-17</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Färska ringhack 3 meter från avverkningsplanerad skog</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2385,10 +2394,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112254477</v>
+        <v>112254542</v>
       </c>
       <c r="B18" t="n">
-        <v>89553</v>
+        <v>88637</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2401,21 +2410,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>1962</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2428,10 +2437,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>617593</v>
+        <v>617642</v>
       </c>
       <c r="R18" t="n">
-        <v>7265453</v>
+        <v>7265457</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2491,10 +2500,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112254523</v>
+        <v>112254491</v>
       </c>
       <c r="B19" t="n">
-        <v>56575</v>
+        <v>78242</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2507,31 +2516,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>103021</v>
+        <v>6453</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2539,10 +2543,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>617624</v>
+        <v>617619</v>
       </c>
       <c r="R19" t="n">
-        <v>7265452</v>
+        <v>7265460</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2569,12 +2573,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2583,6 +2587,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2601,10 +2606,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112254571</v>
+        <v>112254479</v>
       </c>
       <c r="B20" t="n">
-        <v>88637</v>
+        <v>89571</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2617,21 +2622,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1962</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2644,10 +2649,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>617653</v>
+        <v>617593</v>
       </c>
       <c r="R20" t="n">
-        <v>7265480</v>
+        <v>7265453</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2707,10 +2712,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112254423</v>
+        <v>112254540</v>
       </c>
       <c r="B21" t="n">
-        <v>56446</v>
+        <v>91002</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2723,31 +2728,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100049</v>
+        <v>2079</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>617579</v>
+        <v>617642</v>
       </c>
       <c r="R21" t="n">
-        <v>7265423</v>
+        <v>7265457</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2799,6 +2799,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2817,10 +2818,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112254531</v>
+        <v>112254658</v>
       </c>
       <c r="B22" t="n">
-        <v>88637</v>
+        <v>78242</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2833,21 +2834,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1962</v>
+        <v>6453</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2860,10 +2861,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>617635</v>
+        <v>617729</v>
       </c>
       <c r="R22" t="n">
-        <v>7265444</v>
+        <v>7265487</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -2923,10 +2924,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112254375</v>
+        <v>112254546</v>
       </c>
       <c r="B23" t="n">
-        <v>77650</v>
+        <v>56575</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2939,26 +2940,31 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -2966,10 +2972,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>617583</v>
+        <v>617642</v>
       </c>
       <c r="R23" t="n">
-        <v>7265393</v>
+        <v>7265457</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3010,7 +3016,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3029,10 +3034,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112254508</v>
+        <v>112254523</v>
       </c>
       <c r="B24" t="n">
-        <v>90808</v>
+        <v>56575</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3045,26 +3050,31 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4362</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3072,10 +3082,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>617619</v>
+        <v>617624</v>
       </c>
       <c r="R24" t="n">
-        <v>7265451</v>
+        <v>7265452</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3102,12 +3112,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3116,7 +3126,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3135,10 +3144,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112254622</v>
+        <v>112254571</v>
       </c>
       <c r="B25" t="n">
-        <v>78242</v>
+        <v>88637</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3151,21 +3160,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6453</v>
+        <v>1962</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3178,10 +3187,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>617693</v>
+        <v>617653</v>
       </c>
       <c r="R25" t="n">
-        <v>7265510</v>
+        <v>7265480</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3241,10 +3250,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112254411</v>
+        <v>112254531</v>
       </c>
       <c r="B26" t="n">
-        <v>89553</v>
+        <v>88637</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3257,21 +3266,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>1962</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3284,10 +3293,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>617579</v>
+        <v>617635</v>
       </c>
       <c r="R26" t="n">
-        <v>7265423</v>
+        <v>7265444</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3347,10 +3356,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112254450</v>
+        <v>112254521</v>
       </c>
       <c r="B27" t="n">
-        <v>56430</v>
+        <v>89794</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3359,35 +3368,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>65</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3395,10 +3399,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>617583</v>
+        <v>617624</v>
       </c>
       <c r="R27" t="n">
-        <v>7265437</v>
+        <v>7265452</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3433,17 +3437,13 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Färska ringhack 3 meter från avverkningsplanerad skog</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3462,10 +3462,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112254540</v>
+        <v>112254423</v>
       </c>
       <c r="B28" t="n">
-        <v>91002</v>
+        <v>56446</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3478,26 +3478,31 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2079</v>
+        <v>100049</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3505,10 +3510,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>617642</v>
+        <v>617579</v>
       </c>
       <c r="R28" t="n">
-        <v>7265457</v>
+        <v>7265423</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3549,7 +3554,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3568,10 +3572,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112254546</v>
+        <v>112254411</v>
       </c>
       <c r="B29" t="n">
-        <v>56575</v>
+        <v>89553</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3584,31 +3588,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3616,10 +3615,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>617642</v>
+        <v>617579</v>
       </c>
       <c r="R29" t="n">
-        <v>7265457</v>
+        <v>7265423</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3660,6 +3659,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3678,10 +3678,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112254542</v>
+        <v>112254375</v>
       </c>
       <c r="B30" t="n">
-        <v>88637</v>
+        <v>77650</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3694,21 +3694,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3721,10 +3721,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>617642</v>
+        <v>617583</v>
       </c>
       <c r="R30" t="n">
-        <v>7265457</v>
+        <v>7265393</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3784,10 +3784,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112254479</v>
+        <v>112254591</v>
       </c>
       <c r="B31" t="n">
-        <v>89571</v>
+        <v>77403</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3800,21 +3800,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>228912</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>617593</v>
+        <v>617661</v>
       </c>
       <c r="R31" t="n">
-        <v>7265453</v>
+        <v>7265491</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -3890,10 +3890,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112254521</v>
+        <v>112254508</v>
       </c>
       <c r="B32" t="n">
-        <v>89794</v>
+        <v>90808</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3902,25 +3902,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>65</v>
+        <v>4362</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3933,10 +3933,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>617624</v>
+        <v>617619</v>
       </c>
       <c r="R32" t="n">
-        <v>7265452</v>
+        <v>7265451</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -3996,10 +3996,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112254474</v>
+        <v>112254622</v>
       </c>
       <c r="B33" t="n">
-        <v>89834</v>
+        <v>78242</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4012,21 +4012,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>658</v>
+        <v>6453</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4039,10 +4039,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>617593</v>
+        <v>617693</v>
       </c>
       <c r="R33" t="n">
-        <v>7265453</v>
+        <v>7265510</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>

--- a/artfynd/A 29866-2023.xlsx
+++ b/artfynd/A 29866-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112221143</v>
+        <v>112220975</v>
       </c>
       <c r="B2" t="n">
-        <v>90830</v>
+        <v>90806</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>617972</v>
+        <v>618020</v>
       </c>
       <c r="R2" t="n">
-        <v>7265508</v>
+        <v>7265521</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112221165</v>
+        <v>112221873</v>
       </c>
       <c r="B3" t="n">
-        <v>88637</v>
+        <v>56575</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -802,26 +802,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1962</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -829,10 +830,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>617967</v>
+        <v>617699</v>
       </c>
       <c r="R3" t="n">
-        <v>7265496</v>
+        <v>7265465</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -859,12 +860,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -873,7 +874,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -892,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112221323</v>
+        <v>112221174</v>
       </c>
       <c r="B4" t="n">
-        <v>56430</v>
+        <v>78242</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -908,31 +908,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -940,10 +935,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>617927</v>
+        <v>617967</v>
       </c>
       <c r="R4" t="n">
-        <v>7265495</v>
+        <v>7265496</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -978,17 +973,13 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>hackspettskalad gren på  undervegetationsgrsn. Tretå observerad födosökande nära liksom Ringhack. Allra mest troligt tretå</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1113,10 +1104,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112221873</v>
+        <v>112221011</v>
       </c>
       <c r="B6" t="n">
-        <v>56575</v>
+        <v>89794</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1125,31 +1116,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103021</v>
+        <v>65</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1157,10 +1147,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>617699</v>
+        <v>617996</v>
       </c>
       <c r="R6" t="n">
-        <v>7265465</v>
+        <v>7265516</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1187,12 +1177,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1201,6 +1191,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1219,10 +1210,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112221174</v>
+        <v>112220995</v>
       </c>
       <c r="B7" t="n">
-        <v>78242</v>
+        <v>88637</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1235,21 +1226,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>1962</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1262,10 +1253,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>617967</v>
+        <v>618001</v>
       </c>
       <c r="R7" t="n">
-        <v>7265496</v>
+        <v>7265521</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1325,10 +1316,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112221233</v>
+        <v>112221170</v>
       </c>
       <c r="B8" t="n">
-        <v>88637</v>
+        <v>77321</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1341,21 +1332,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1962</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1368,10 +1359,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>617942</v>
+        <v>617967</v>
       </c>
       <c r="R8" t="n">
-        <v>7265508</v>
+        <v>7265496</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1431,10 +1422,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112221011</v>
+        <v>112221143</v>
       </c>
       <c r="B9" t="n">
-        <v>89794</v>
+        <v>90830</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1443,25 +1434,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>65</v>
+        <v>2059</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1465,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>617996</v>
+        <v>617972</v>
       </c>
       <c r="R9" t="n">
-        <v>7265516</v>
+        <v>7265508</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1537,10 +1528,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112220995</v>
+        <v>112221323</v>
       </c>
       <c r="B10" t="n">
-        <v>88637</v>
+        <v>56430</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1553,26 +1544,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1962</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1580,10 +1576,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>618001</v>
+        <v>617927</v>
       </c>
       <c r="R10" t="n">
-        <v>7265521</v>
+        <v>7265495</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1618,13 +1614,17 @@
           <t>2023-09-17</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>hackspettskalad gren på  undervegetationsgrsn. Tretå observerad födosökande nära liksom Ringhack. Allra mest troligt tretå</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112221397</v>
+        <v>112221165</v>
       </c>
       <c r="B11" t="n">
-        <v>77403</v>
+        <v>88637</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1659,21 +1659,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>228912</v>
+        <v>1962</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>617945</v>
+        <v>617967</v>
       </c>
       <c r="R11" t="n">
-        <v>7265470</v>
+        <v>7265496</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112221170</v>
+        <v>112221233</v>
       </c>
       <c r="B12" t="n">
-        <v>77321</v>
+        <v>88637</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1765,21 +1765,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>353</v>
+        <v>1962</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>617967</v>
+        <v>617942</v>
       </c>
       <c r="R12" t="n">
-        <v>7265496</v>
+        <v>7265508</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112220975</v>
+        <v>112221397</v>
       </c>
       <c r="B14" t="n">
-        <v>90806</v>
+        <v>77403</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1977,21 +1977,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4361</v>
+        <v>228912</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>618020</v>
+        <v>617945</v>
       </c>
       <c r="R14" t="n">
-        <v>7265521</v>
+        <v>7265470</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2067,10 +2067,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112254477</v>
+        <v>112254523</v>
       </c>
       <c r="B15" t="n">
-        <v>89553</v>
+        <v>56575</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2083,26 +2083,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2110,10 +2115,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>617593</v>
+        <v>617624</v>
       </c>
       <c r="R15" t="n">
-        <v>7265453</v>
+        <v>7265452</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2140,12 +2145,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2154,7 +2159,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2173,10 +2177,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112254474</v>
+        <v>112254622</v>
       </c>
       <c r="B16" t="n">
-        <v>89834</v>
+        <v>78242</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2189,21 +2193,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>6453</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2216,10 +2220,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>617593</v>
+        <v>617693</v>
       </c>
       <c r="R16" t="n">
-        <v>7265453</v>
+        <v>7265510</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2279,10 +2283,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112254450</v>
+        <v>112254542</v>
       </c>
       <c r="B17" t="n">
-        <v>56430</v>
+        <v>88637</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2295,31 +2299,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>1962</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2327,10 +2326,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>617583</v>
+        <v>617642</v>
       </c>
       <c r="R17" t="n">
-        <v>7265437</v>
+        <v>7265457</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2365,17 +2364,13 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Färska ringhack 3 meter från avverkningsplanerad skog</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2394,10 +2389,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112254542</v>
+        <v>112254423</v>
       </c>
       <c r="B18" t="n">
-        <v>88637</v>
+        <v>56446</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2410,26 +2405,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1962</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>617642</v>
+        <v>617579</v>
       </c>
       <c r="R18" t="n">
-        <v>7265457</v>
+        <v>7265423</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2481,7 +2481,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2500,10 +2499,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112254491</v>
+        <v>112254508</v>
       </c>
       <c r="B19" t="n">
-        <v>78242</v>
+        <v>90808</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2516,21 +2515,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6453</v>
+        <v>4362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2546,7 +2545,7 @@
         <v>617619</v>
       </c>
       <c r="R19" t="n">
-        <v>7265460</v>
+        <v>7265451</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2606,10 +2605,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112254479</v>
+        <v>112254521</v>
       </c>
       <c r="B20" t="n">
-        <v>89571</v>
+        <v>89794</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2618,25 +2617,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>65</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2649,10 +2648,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>617593</v>
+        <v>617624</v>
       </c>
       <c r="R20" t="n">
-        <v>7265453</v>
+        <v>7265452</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2712,10 +2711,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112254540</v>
+        <v>112254479</v>
       </c>
       <c r="B21" t="n">
-        <v>91002</v>
+        <v>89571</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2728,21 +2727,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2079</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2755,10 +2754,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>617642</v>
+        <v>617593</v>
       </c>
       <c r="R21" t="n">
-        <v>7265457</v>
+        <v>7265453</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2924,10 +2923,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112254546</v>
+        <v>112254491</v>
       </c>
       <c r="B23" t="n">
-        <v>56575</v>
+        <v>78242</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2940,31 +2939,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>103021</v>
+        <v>6453</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -2972,10 +2966,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>617642</v>
+        <v>617619</v>
       </c>
       <c r="R23" t="n">
-        <v>7265457</v>
+        <v>7265460</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3016,6 +3010,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3034,10 +3029,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112254523</v>
+        <v>112254591</v>
       </c>
       <c r="B24" t="n">
-        <v>56575</v>
+        <v>77403</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3050,31 +3045,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>103021</v>
+        <v>228912</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3082,10 +3072,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>617624</v>
+        <v>617661</v>
       </c>
       <c r="R24" t="n">
-        <v>7265452</v>
+        <v>7265491</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3112,12 +3102,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3126,6 +3116,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3144,10 +3135,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112254571</v>
+        <v>112254411</v>
       </c>
       <c r="B25" t="n">
-        <v>88637</v>
+        <v>89553</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3160,21 +3151,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1962</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3187,10 +3178,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>617653</v>
+        <v>617579</v>
       </c>
       <c r="R25" t="n">
-        <v>7265480</v>
+        <v>7265423</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3250,10 +3241,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112254531</v>
+        <v>112254450</v>
       </c>
       <c r="B26" t="n">
-        <v>88637</v>
+        <v>56430</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3266,26 +3257,31 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1962</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3293,10 +3289,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>617635</v>
+        <v>617583</v>
       </c>
       <c r="R26" t="n">
-        <v>7265444</v>
+        <v>7265437</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3331,13 +3327,17 @@
           <t>2023-09-17</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Färska ringhack 3 meter från avverkningsplanerad skog</t>
+        </is>
+      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112254521</v>
+        <v>112254531</v>
       </c>
       <c r="B27" t="n">
-        <v>89794</v>
+        <v>88637</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3368,25 +3368,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>65</v>
+        <v>1962</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>617624</v>
+        <v>617635</v>
       </c>
       <c r="R27" t="n">
-        <v>7265452</v>
+        <v>7265444</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3462,10 +3462,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112254423</v>
+        <v>112254375</v>
       </c>
       <c r="B28" t="n">
-        <v>56446</v>
+        <v>77650</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3478,31 +3478,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3510,10 +3505,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>617579</v>
+        <v>617583</v>
       </c>
       <c r="R28" t="n">
-        <v>7265423</v>
+        <v>7265393</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3554,6 +3549,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3572,10 +3568,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112254411</v>
+        <v>112254474</v>
       </c>
       <c r="B29" t="n">
-        <v>89553</v>
+        <v>89834</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3588,21 +3584,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3615,10 +3611,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>617579</v>
+        <v>617593</v>
       </c>
       <c r="R29" t="n">
-        <v>7265423</v>
+        <v>7265453</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3678,10 +3674,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112254375</v>
+        <v>112254540</v>
       </c>
       <c r="B30" t="n">
-        <v>77650</v>
+        <v>91002</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3694,21 +3690,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>2079</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3721,10 +3717,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>617583</v>
+        <v>617642</v>
       </c>
       <c r="R30" t="n">
-        <v>7265393</v>
+        <v>7265457</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3784,10 +3780,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112254591</v>
+        <v>112254546</v>
       </c>
       <c r="B31" t="n">
-        <v>77403</v>
+        <v>56575</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3800,26 +3796,31 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>228912</v>
+        <v>103021</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -3827,10 +3828,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>617661</v>
+        <v>617642</v>
       </c>
       <c r="R31" t="n">
-        <v>7265491</v>
+        <v>7265457</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -3871,7 +3872,6 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -3890,10 +3890,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112254508</v>
+        <v>112254571</v>
       </c>
       <c r="B32" t="n">
-        <v>90808</v>
+        <v>88637</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3906,21 +3906,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3933,10 +3933,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>617619</v>
+        <v>617653</v>
       </c>
       <c r="R32" t="n">
-        <v>7265451</v>
+        <v>7265480</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -3996,10 +3996,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112254622</v>
+        <v>112254477</v>
       </c>
       <c r="B33" t="n">
-        <v>78242</v>
+        <v>89553</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4012,21 +4012,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6453</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4039,10 +4039,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>617693</v>
+        <v>617593</v>
       </c>
       <c r="R33" t="n">
-        <v>7265510</v>
+        <v>7265453</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
